--- a/database/relatorio/PE 90004-2024/SKYLAB_COMERCIAL_HOSPITALAR_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/SKYLAB_COMERCIAL_HOSPITALAR_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,24 +446,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Motor Endodôntico com localizador de ápice permitindo uma série de combinações de técnicas de trabalho no tratamento endodôntico, como a retirada do tecido pulpar, limpeza e instrumentação do canal radicular, com a vantagem de dispor ainda, do localizador apical para a determinação do comprimento endodôntico de trabalho. Peça de mão Wireless (sem fio) Possuindo 32 configurações dos principais sistemas de limas NiTi do mercado, seis opções de movimentos reciprocantes (3 à direita e 3 à esquerda) e 8 programas personalizáveis. Reúne três sistemas em um único equipamento: Motor endodôntico, localizador apical e função integrada (motor e localizador apical). Alimentação bivolt. Contra ângulo com iluminação por LED, Garantindo a máxima visualização do campo de trabalho.</t>
+          <t>Motor Endodôntico com localizador de ápice permitindo uma série de combinações de técnicas de trabalho no tratamento endodôntico, como a retirada do tecido pulpar, limpeza e instrumentação do canal radicular, com a vantagem de dispor ainda, do localizador apical para a determinação do comprimento endodôntico de trabalho. Peça de mão Wireless (sem fio) Possuindo 32 configurações dos principais sistemas de limas NiTi do mercado, seis opções de movimentos reciprocantes (3 à direita e 3 à esquerda) e 8 programas personalizáveis. Reúne três sistemas em um único equipamento: Motor endodôntico, localizador apical e função integrada (motor e localizador apical). Alimentação bivolt. Contra ângulo com iluminação por LED, Garantindo a máxima visualização do campo de trabalho.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 6649.0</t>
+          <t>Marca:  dental speed</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 13298.0</t>
+          <t>Modelo:  dental speed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 6.649,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 13.298,00</t>
         </is>
       </c>
     </row>

--- a/database/relatorio/PE 90004-2024/SKYLAB_COMERCIAL_HOSPITALAR_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/SKYLAB_COMERCIAL_HOSPITALAR_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 69 - EQUIPAMENTO ODONTOLÓGICO (441973)</t>
+          <t>Item 69 - EQUIPAMENTO ODONTOLÓGICO (441973)</t>
         </is>
       </c>
     </row>
